--- a/gramA1Items.xlsx
+++ b/gramA1Items.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>&lt;item&gt;</t>
   </si>
@@ -36,28 +36,7 @@
     <t>Множественное число существительные (артикли). Il plurale dei nomi (articoli)</t>
   </si>
   <si>
-    <t>Спряжение глаголов (Настоящее время). Coniugazione dei verbi (presente)</t>
-  </si>
-  <si>
     <t>Предлоги и артикли. Preposizione articolate</t>
-  </si>
-  <si>
-    <t>Спряжение глаголов (Прошедшее время). Coniugazione dei verbi (Passato prossimo)</t>
-  </si>
-  <si>
-    <t>Спряжение глаголов (Прошедшее длительное). Coniugazione dei verbi (Passato imperfetto)</t>
-  </si>
-  <si>
-    <t>Будущее простое. Futuro semplice</t>
-  </si>
-  <si>
-    <t>Выбор прошедшее ближайшее или неопределенное. Imperfetto o prossimo passato</t>
-  </si>
-  <si>
-    <t>Сослагательное. Condizionale</t>
-  </si>
-  <si>
-    <t>Повелительное. Imperativo</t>
   </si>
 </sst>
 </file>
@@ -394,7 +373,7 @@
   <dimension ref="A2:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C13"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,81 +459,32 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gramA1Items.xlsx
+++ b/gramA1Items.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="7">
   <si>
     <t>&lt;item&gt;</t>
   </si>
@@ -73,9 +73,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -373,7 +374,7 @@
   <dimension ref="A2:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="F2" sqref="F2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -397,9 +398,15 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -424,6 +431,15 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
@@ -435,6 +451,15 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
@@ -446,6 +471,15 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
@@ -455,6 +489,15 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -494,12 +537,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
